--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_phase3\Product-2.10.3.0-build1790\WebContent\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10676922\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C624F8-E93B-47E6-8F38-378D45FB5060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -510,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1074,19 +1075,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50938</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>98563</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>153194</xdr:rowOff>
+      <xdr:rowOff>57944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1099,7 +1106,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="279538" y="200025"/>
+          <a:off x="327163" y="104775"/>
           <a:ext cx="587237" cy="562769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1129,7 +1136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="E:\workspace_phase3\Product-2.10.3.0-build1790\WebContent\images\bmicLogo2.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="E:\workspace_phase3\Product-2.10.3.0-build1790\WebContent\images\bmicLogo2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1189,7 +1202,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1232,7 +1251,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1520,11 +1545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B4" sqref="B4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2051,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2341,7 +2366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2353,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2792,7 +2817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10676922\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C624F8-E93B-47E6-8F38-378D45FB5060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F577D8-4E12-4FDE-9162-76B83C6865F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
   <si>
     <t>AGENCY DETAILS</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>:Producer_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILDERS MUTUAL INSURANCE </t>
   </si>
 </sst>
 </file>
@@ -1075,15 +1078,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>98563</xdr:colOff>
+      <xdr:colOff>98564</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>625338</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57944</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,8 +1109,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="327163" y="104775"/>
-          <a:ext cx="587237" cy="562769"/>
+          <a:off x="327164" y="104775"/>
+          <a:ext cx="526774" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,7 +1552,7 @@
   <dimension ref="A2:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1583,7 +1586,7 @@
     <row r="3" spans="1:51" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>

--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10676922\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_phase3\Product-2.10.3.0-build1790\WebContent\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F577D8-4E12-4FDE-9162-76B83C6865F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
   <si>
     <t>AGENCY DETAILS</t>
   </si>
@@ -506,15 +505,12 @@
   </si>
   <si>
     <t>:Producer_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILDERS MUTUAL INSURANCE </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,25 +1074,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>98564</xdr:colOff>
+      <xdr:colOff>3314</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>625338</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>451402</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>105568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1109,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="327164" y="104775"/>
-          <a:ext cx="526774" cy="504825"/>
+          <a:off x="231914" y="123825"/>
+          <a:ext cx="448088" cy="429418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,60 +1117,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41636</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>671379</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>134520</xdr:rowOff>
+      <xdr:rowOff>132642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="E:\workspace_phase3\Product-2.10.3.0-build1790\WebContent\images\bmicLogo2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="346436" y="133350"/>
-          <a:ext cx="663214" cy="629820"/>
+          <a:off x="323850" y="133350"/>
+          <a:ext cx="652329" cy="627942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1193,25 +1160,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>684558</xdr:colOff>
+      <xdr:colOff>652329</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>113592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1224,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171451" y="152401"/>
-          <a:ext cx="655982" cy="628650"/>
+          <a:off x="142875" y="142875"/>
+          <a:ext cx="652329" cy="627942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,25 +1203,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>685801</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>124222</xdr:rowOff>
+      <xdr:rowOff>77343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1273,8 +1228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="161925"/>
-          <a:ext cx="676275" cy="648097"/>
+          <a:off x="247650" y="134245"/>
+          <a:ext cx="657226" cy="628898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,11 +1503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1586,7 +1541,7 @@
     <row r="3" spans="1:51" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -2079,10 +2034,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:L3"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2381,11 +2336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2820,11 +2775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -1074,15 +1074,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3314</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>451402</xdr:colOff>
+      <xdr:colOff>470784</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>105568</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="231914" y="123825"/>
-          <a:ext cx="448088" cy="429418"/>
+          <a:off x="270014" y="180975"/>
+          <a:ext cx="429370" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,15 +1117,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>671379</xdr:colOff>
+      <xdr:colOff>553376</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>132642</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1142,8 +1142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="133350"/>
-          <a:ext cx="652329" cy="627942"/>
+          <a:off x="323851" y="142875"/>
+          <a:ext cx="534325" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,15 +1160,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>652329</xdr:colOff>
+      <xdr:colOff>564012</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>113592</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="142875"/>
-          <a:ext cx="652329" cy="627942"/>
+          <a:off x="142877" y="142875"/>
+          <a:ext cx="564010" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,15 +1203,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>134245</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
+      <xdr:colOff>726186</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>77343</xdr:rowOff>
+      <xdr:rowOff>144151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1228,8 +1228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="134245"/>
-          <a:ext cx="657226" cy="628898"/>
+          <a:off x="238125" y="153295"/>
+          <a:ext cx="707136" cy="676656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1507,7 +1507,7 @@
   <dimension ref="A2:BE24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2037,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2779,7 +2779,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -1074,15 +1074,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>22364</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>470784</xdr:colOff>
+      <xdr:colOff>451734</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,7 +1099,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="270014" y="180975"/>
+          <a:off x="250964" y="171450"/>
           <a:ext cx="429370" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1117,15 +1117,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>553376</xdr:colOff>
+      <xdr:colOff>645992</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>117729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1142,8 +1142,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="142875"/>
-          <a:ext cx="534325" cy="514350"/>
+          <a:off x="323850" y="142875"/>
+          <a:ext cx="626942" cy="603504"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,14 +1161,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>564012</xdr:colOff>
+      <xdr:colOff>655441</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>116585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142877" y="142875"/>
-          <a:ext cx="564010" cy="542925"/>
+          <a:off x="142877" y="142874"/>
+          <a:ext cx="655439" cy="630936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,7 +2038,7 @@
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -1506,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BE24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2339,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_phase3\Product-2.10.3.0-build1790\WebContent\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="2550"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -17,18 +12,20 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Adjustment Details" sheetId="3" r:id="rId4"/>
     <sheet name="Sub Totals" sheetId="5" r:id="rId5"/>
+    <sheet name="FAQ" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Adjustment Details'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Commission Statement'!$B$12:$O$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary Page'!$B$19:$J$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
   <si>
     <t>AGENCY DETAILS</t>
   </si>
@@ -505,13 +502,365 @@
   </si>
   <si>
     <t>:Producer_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referring to the above sample of today’s current FAQ that appears on the back of the commission statement, please see the below ‘sections’ that I tried to correspond with a comment that it will be left as is or will need to change. The verbiage in red means something has to be finalized before we will know the exact verbiage.  </t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>At the top left corner:</t>
+    </r>
+  </si>
+  <si>
+    <t>Commission Schedule:</t>
+  </si>
+  <si>
+    <t>Workers’ Compensation 10% (new), 8% (renewal)</t>
+  </si>
+  <si>
+    <t>Other Lines 15% (new and renewal)</t>
+  </si>
+  <si>
+    <t>Remove this section at the top left corner</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMMONLY ASKED QUESTIONS</t>
+    </r>
+  </si>
+  <si>
+    <t>Ok to leave heading of section as is</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 1:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When are commissions checks issued? Commission payments are electronically transferred to the agency’s designated account on the 5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the month and are based on premium collected in the prior month.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ok to leave as is</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 2:</t>
+    </r>
+  </si>
+  <si>
+    <t>Where can I research policy details online? Log in to buildersmutual.com and click “Get Started” to Quote &amp; Manage Policies.  On the left hand side, select Policy Search, and enter the insured’s name or policy number to review policy changes and payment history.</t>
+  </si>
+  <si>
+    <t>BMIC- to update this sentence we need to know exactly where/how agents will access Producer, and then where in Producer they need to search/click to get to policies.  Will they be going to buildersmutual.com first?  I can log in to a Producer test env to identify a path but will anything change between now and go-live that would affect the path described as OTC lines are added in the future, etc?</t>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 3:</t>
+    </r>
+  </si>
+  <si>
+    <t>Why is there a credit on my statement? Most often a credit balance is caused by a return of premium, refund or audit return.  Review prior statements and/or log in to buildersmutual.com to determine the exact changes that have affected the premium.</t>
+  </si>
+  <si>
+    <t>Will need to update if path is not buildersmutual.com.  With regards to viewing prior statements, would we want to add instructions specific to downloading with Ivans AND how to access statements if agent has not chosen to use Ivans?</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 4:</t>
+    </r>
+  </si>
+  <si>
+    <t>Do we have to pay the credit amount? Typically, additional premium received will offset any credit amount.</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 5:</t>
+    </r>
+  </si>
+  <si>
+    <t>If an Agent of Record (AOR) change occurs, when are commissions paid?  Commissions are paid on premium received after the date of the month following the AOR change.  Example: Agent 123 tales over the policy for XYZ Plumbing and the notification is sent to Builders Mutual on January 15.  With the appropriate 10-day notice, Agent 123 will receive commission on premium paid after February 1.  Any premium paid prior to February 1 will remain with the previous agent of record.  Premium received after February 1 will be commissionable for the new agent.  Complete AOR procedures are posted in the Registered Agents section of buildersmutual.com.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will AOR procedures be left where they are on our website, or will they be moved to Producer?  </t>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 6:</t>
+    </r>
+  </si>
+  <si>
+    <t>How do premium audits impact commission statements?  The agent of record at the time of the audit is the agent responsible for any commission credits or debits.  When an AOR change occurs mid-term, the new agent of record is responsible for any commissions relating to the audit for the entire policy year regardless of the timing of the AOR change.  Example: If the new agent acquires the policy three months prior to the renewal, the new agent is responsible for the audit and any commission credits or debits for the entire policy year.</t>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 7:</t>
+    </r>
+  </si>
+  <si>
+    <t>What if my commission rate does not match the schedule above?  The commission rate can vary if an AOR takes place mid-term or if a commission rate change occurs.  The system will calculate a blended rate based on the commission rate at the time the premium was paid.</t>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEFINITIONS:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This section will remain but the items to be defined will be different based on the column headings that are on DC’s OOB statement as they will no longer match what is on our current statement.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Asking LTI if we can get a pdf of a commission statement with some test data included on it so we can get a good idea of how it generates and what columns will be populated.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The excel we have has 4 separate tabs- will this come out in one document, will there be 4 separate pages, etc?  If it is multiple pages that have different headings, etc… we may have to break down the Definitions to correspond to each heading.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +891,43 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -899,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -949,6 +1335,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1230,6 +1634,47 @@
         <a:xfrm>
           <a:off x="238125" y="153295"/>
           <a:ext cx="707136" cy="676656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Graphical user interface, text, application&#10;&#10;Description automatically generated"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9394825" cy="6400800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1540,17 +1985,17 @@
     </row>
     <row r="3" spans="1:51" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1595,17 +2040,17 @@
     </row>
     <row r="4" spans="1:51" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1652,14 +2097,14 @@
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
@@ -1711,68 +2156,68 @@
     </row>
     <row r="7" spans="1:51" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:51" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -1781,17 +2226,17 @@
     </row>
     <row r="17" spans="1:57" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2078,47 +2523,47 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2128,10 +2573,10 @@
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="23" t="s">
         <v>129</v>
       </c>
@@ -2148,20 +2593,20 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -2337,7 +2782,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J45"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -2370,109 +2815,109 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="2:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="8" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="14" t="s">
         <v>148</v>
       </c>
@@ -2490,13 +2935,13 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
@@ -2567,12 +3012,12 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
@@ -2636,17 +3081,17 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
@@ -2776,7 +3221,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
@@ -2807,40 +3252,40 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2848,12 +3293,12 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -2935,12 +3380,12 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
@@ -3026,4 +3471,248 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A35:D87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/main/webapp/templates/commissionStatementTemplate.xlsx
+++ b/src/main/webapp/templates/commissionStatementTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10676922\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFB3778-9730-4318-AEBB-5A8118294826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="2550"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary Page'!$B$19:$J$19</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="179">
   <si>
     <t>AGENCY DETAILS</t>
   </si>
@@ -504,21 +509,75 @@
     <t>:Producer_Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Referring to the above sample of today’s current FAQ that appears on the back of the commission statement, please see the below ‘sections’ that I tried to correspond with a comment that it will be left as is or will need to change. The verbiage in red means something has to be finalized before we will know the exact verbiage.  </t>
+    <t>BMIC- to update this sentence we need to know exactly where/how agents will access Producer, and then where in Producer they need to search/click to get to policies.  Will they be going to buildersmutual.com first?  I can log in to a Producer test env to identify a path but will anything change between now and go-live that would affect the path described as OTC lines are added in the future, etc?</t>
+  </si>
+  <si>
+    <t>Will need to update if path is not buildersmutual.com.  With regards to viewing prior statements, would we want to add instructions specific to downloading with Ivans AND how to access statements if agent has not chosen to use Ivans?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will AOR procedures be left where they are on our website, or will they be moved to Producer?  </t>
+  </si>
+  <si>
+    <t>COMMONLY ASKED QUESTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: When are commissions checks issued? </t>
+  </si>
+  <si>
+    <t>Commission payments are electronically transferred to the agency’s designated account on the 5th of the month and are based on premium collected in the prior month.</t>
+  </si>
+  <si>
+    <t>Question 2: Where can I research policy details online?</t>
+  </si>
+  <si>
+    <t>Log in to buildersmutual.com and click “Get Started” to Quote &amp; Manage Policies.  On the left hand side, select Policy Search, and enter the insured’s name or policy number to review policy changes and payment history.</t>
+  </si>
+  <si>
+    <t>Question 3: Why is there a credit on my statement?</t>
+  </si>
+  <si>
+    <t>Most often a credit balance is caused by a return of premium, refund or audit return.  Review prior statements and/or log in to buildersmutual.com to determine the exact changes that have affected the premium.</t>
+  </si>
+  <si>
+    <t>Question 4: Do we have to pay the credit amount?</t>
+  </si>
+  <si>
+    <t>Typically, additional premium received will offset any credit amount.</t>
+  </si>
+  <si>
+    <t>Question 5: If an Agent of Record (AOR) change occurs, when are commissions paid?</t>
+  </si>
+  <si>
+    <t>Commissions are paid on premium received after the date of the month following the AOR change.  Example: Agent 123 tales over the policy for XYZ Plumbing and the notification is sent to Builders Mutual on January 15.  With the appropriate 10-day notice, Agent 123 will receive commission on premium paid after February 1.  Any premium paid prior to February 1 will remain with the previous agent of record.  Premium received after February 1 will be commissionable for the new agent.  Complete AOR procedures are posted in the Registered Agents section of buildersmutual.com.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 6: How do premium audits impact commission statements? </t>
+  </si>
+  <si>
+    <t>The agent of record at the time of the audit is the agent responsible for any commission credits or debits.  When an AOR change occurs mid-term, the new agent of record is responsible for any commissions relating to the audit for the entire policy year regardless of the timing of the AOR change.  Example: If the new agent acquires the policy three months prior to the renewal, the new agent is responsible for the audit and any commission credits or debits for the entire policy year.</t>
+  </si>
+  <si>
+    <t>Question 7: What if my commission rate does not match the schedule above?</t>
+  </si>
+  <si>
+    <t>The commission rate can vary if an AOR takes place mid-term or if a commission rate change occurs.  The system will calculate a blended rate based on the commission rate at the time the premium was paid.</t>
+  </si>
+  <si>
+    <t>DEFINITIONS:</t>
   </si>
   <si>
     <r>
-      <t>1.</t>
+      <t xml:space="preserve">This section will remain but the items to be defined will be different based on the column headings that are on DC’s OOB statement as they will no longer match what is on our current statement. </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve"> Asking LTI if we can get a pdf of a commission statement with some test data included on it so we can get a good idea of how it generates and what columns will be populated. </t>
     </r>
     <r>
       <rPr>
@@ -528,339 +587,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>At the top left corner:</t>
+      <t xml:space="preserve"> The excel we have has 4 separate tabs- will this come out in one document, will there be 4 separate pages, etc?  If it is multiple pages that have different headings, etc… we may have to break down the Definitions to correspond to each heading.</t>
     </r>
-  </si>
-  <si>
-    <t>Commission Schedule:</t>
-  </si>
-  <si>
-    <t>Workers’ Compensation 10% (new), 8% (renewal)</t>
-  </si>
-  <si>
-    <t>Other Lines 15% (new and renewal)</t>
-  </si>
-  <si>
-    <t>Remove this section at the top left corner</t>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COMMONLY ASKED QUESTIONS</t>
-    </r>
-  </si>
-  <si>
-    <t>Ok to leave heading of section as is</t>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 1:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>When are commissions checks issued? Commission payments are electronically transferred to the agency’s designated account on the 5</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of the month and are based on premium collected in the prior month.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ok to leave as is</t>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 2:</t>
-    </r>
-  </si>
-  <si>
-    <t>Where can I research policy details online? Log in to buildersmutual.com and click “Get Started” to Quote &amp; Manage Policies.  On the left hand side, select Policy Search, and enter the insured’s name or policy number to review policy changes and payment history.</t>
-  </si>
-  <si>
-    <t>BMIC- to update this sentence we need to know exactly where/how agents will access Producer, and then where in Producer they need to search/click to get to policies.  Will they be going to buildersmutual.com first?  I can log in to a Producer test env to identify a path but will anything change between now and go-live that would affect the path described as OTC lines are added in the future, etc?</t>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 3:</t>
-    </r>
-  </si>
-  <si>
-    <t>Why is there a credit on my statement? Most often a credit balance is caused by a return of premium, refund or audit return.  Review prior statements and/or log in to buildersmutual.com to determine the exact changes that have affected the premium.</t>
-  </si>
-  <si>
-    <t>Will need to update if path is not buildersmutual.com.  With regards to viewing prior statements, would we want to add instructions specific to downloading with Ivans AND how to access statements if agent has not chosen to use Ivans?</t>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 4:</t>
-    </r>
-  </si>
-  <si>
-    <t>Do we have to pay the credit amount? Typically, additional premium received will offset any credit amount.</t>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 5:</t>
-    </r>
-  </si>
-  <si>
-    <t>If an Agent of Record (AOR) change occurs, when are commissions paid?  Commissions are paid on premium received after the date of the month following the AOR change.  Example: Agent 123 tales over the policy for XYZ Plumbing and the notification is sent to Builders Mutual on January 15.  With the appropriate 10-day notice, Agent 123 will receive commission on premium paid after February 1.  Any premium paid prior to February 1 will remain with the previous agent of record.  Premium received after February 1 will be commissionable for the new agent.  Complete AOR procedures are posted in the Registered Agents section of buildersmutual.com.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will AOR procedures be left where they are on our website, or will they be moved to Producer?  </t>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 6:</t>
-    </r>
-  </si>
-  <si>
-    <t>How do premium audits impact commission statements?  The agent of record at the time of the audit is the agent responsible for any commission credits or debits.  When an AOR change occurs mid-term, the new agent of record is responsible for any commissions relating to the audit for the entire policy year regardless of the timing of the AOR change.  Example: If the new agent acquires the policy three months prior to the renewal, the new agent is responsible for the audit and any commission credits or debits for the entire policy year.</t>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 7:</t>
-    </r>
-  </si>
-  <si>
-    <t>What if my commission rate does not match the schedule above?  The commission rate can vary if an AOR takes place mid-term or if a commission rate change occurs.  The system will calculate a blended rate based on the commission rate at the time the premium was paid.</t>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DEFINITIONS:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This section will remain but the items to be defined will be different based on the column headings that are on DC’s OOB statement as they will no longer match what is on our current statement.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Asking LTI if we can get a pdf of a commission statement with some test data included on it so we can get a good idea of how it generates and what columns will be populated.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The excel we have has 4 separate tabs- will this come out in one document, will there be 4 separate pages, etc?  If it is multiple pages that have different headings, etc… we may have to break down the Definitions to correspond to each heading.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,23 +643,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1285,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1345,10 +1065,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1455,6 +1175,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,7 +1231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1533,7 +1280,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1576,7 +1329,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1619,7 +1378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1634,47 +1399,6 @@
         <a:xfrm>
           <a:off x="238125" y="153295"/>
           <a:ext cx="707136" cy="676656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Graphical user interface, text, application&#10;&#10;Description automatically generated"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9394825" cy="6400800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,29 +1672,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="6" customWidth="1"/>
     <col min="2" max="2" width="37" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="18.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:51" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
@@ -2154,7 +1878,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:51" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:51" ht="10.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:51" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="43" t="s">
         <v>0</v>
@@ -2164,7 +1888,7 @@
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +1910,7 @@
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +1921,7 @@
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>80</v>
       </c>
@@ -2224,7 +1948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:57" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" s="16" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="32" t="s">
         <v>45</v>
@@ -2346,7 +2070,7 @@
       <c r="BD18" s="6"/>
       <c r="BE18" s="6"/>
     </row>
-    <row r="19" spans="1:57" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" s="15" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2424,7 +2148,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:57" s="15" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" s="15" customFormat="1" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2479,35 +2203,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="32.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="32.26953125" style="6" customWidth="1"/>
     <col min="16" max="16" width="18" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="6"/>
+    <col min="17" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>41</v>
       </c>
@@ -2591,7 +2315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="10.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -2613,7 +2337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
@@ -2706,7 +2430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
@@ -2722,7 +2446,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="15" customFormat="1" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>70</v>
       </c>
@@ -2750,7 +2474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E19"/>
     </row>
   </sheetData>
@@ -2769,41 +2493,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="6" customWidth="1"/>
     <col min="4" max="4" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="10.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
@@ -2866,8 +2590,8 @@
       <c r="H6" s="52"/>
       <c r="I6" s="53"/>
     </row>
-    <row r="8" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="10.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>53</v>
       </c>
@@ -2878,7 +2602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.2">
       <c r="B10" s="60" t="s">
         <v>57</v>
       </c>
@@ -2889,7 +2613,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="60" t="s">
         <v>113</v>
       </c>
@@ -2900,7 +2624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="60" t="s">
         <v>123</v>
       </c>
@@ -2911,7 +2635,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="30.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="57" t="s">
         <v>54</v>
       </c>
@@ -2934,7 +2658,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
         <v>68</v>
       </c>
@@ -2948,7 +2672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" s="15" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>15</v>
       </c>
@@ -2987,7 +2711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
@@ -2995,7 +2719,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:6" s="15" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" s="15" customFormat="1" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>75</v>
       </c>
@@ -3011,7 +2735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B28" s="49" t="s">
         <v>114</v>
       </c>
@@ -3024,7 +2748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" s="15" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>15</v>
       </c>
@@ -3057,7 +2781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
@@ -3065,7 +2789,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="2:10" s="15" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" s="15" customFormat="1" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>115</v>
       </c>
@@ -3080,7 +2804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B38" s="49" t="s">
         <v>124</v>
       </c>
@@ -3098,7 +2822,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="10.5" x14ac:dyDescent="0.2">
       <c r="B40" s="21" t="s">
         <v>12</v>
       </c>
@@ -3161,7 +2885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>118</v>
       </c>
@@ -3172,7 +2896,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>125</v>
       </c>
@@ -3220,23 +2944,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.26953125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3305,7 +3029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>101</v>
       </c>
@@ -3351,7 +3075,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -3362,7 +3086,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>106</v>
       </c>
@@ -3392,7 +3116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="10.5" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>83</v>
       </c>
@@ -3433,13 +3157,13 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="2:5" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>106</v>
       </c>
@@ -3474,245 +3198,324 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A35:D87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:A87"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+    <row r="1" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="26"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="27"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="25"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="26"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="26"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="26"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="25"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="26"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="26"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="29"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="29"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="29"/>
-      <c r="C63" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="26"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="25"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="26"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="26"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="26"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="25"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="26"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="26"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="29"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="26"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="25"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="26"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="26"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="28"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="26"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="25"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="26"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="26"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="28"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="26"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="25"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="26"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A33:XFD33"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A18:XFD18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>